--- a/etc/content.xlsx
+++ b/etc/content.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16729"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkeane\git\pka\etc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <workbookProtection workbookPassword="E35E" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14325"/>
@@ -136,13 +141,13 @@
     <t>2015</t>
   </si>
   <si>
-    <t>Your submission was successful!&lt;br&gt;You will recieve an email shortly.&lt;br&gt;&lt;br&gt;Do you wish to submit again for another child?</t>
+    <t>Your submission was successful!&lt;br&gt;&lt;br&gt;Do you wish to submit again for another child?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -685,6 +690,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -732,7 +740,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -765,9 +773,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -800,6 +825,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">

--- a/etc/content.xlsx
+++ b/etc/content.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>key</t>
   </si>
@@ -36,9 +36,6 @@
     <t>school_year</t>
   </si>
   <si>
-    <t>2015-16</t>
-  </si>
-  <si>
     <t>apply_start_date</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
     <t>btn_apply</t>
   </si>
   <si>
-    <t>apply now</t>
-  </si>
-  <si>
     <t>application_filter_btn</t>
   </si>
   <si>
@@ -72,9 +66,6 @@
     <t>dynamic_filter_btn</t>
   </si>
   <si>
-    <t>dynamic</t>
-  </si>
-  <si>
     <t>form_msg_no_apply</t>
   </si>
   <si>
@@ -84,9 +75,6 @@
     <t>form_dob_msg</t>
   </si>
   <si>
-    <t>&lt;b&gt;Note:&lt;/b&gt; To be eligible for pre-K for the 2015-16 school year, your child must have been born in the year 2011.</t>
-  </si>
-  <si>
     <t>form_another</t>
   </si>
   <si>
@@ -96,59 +84,68 @@
     <t>max_dob_year</t>
   </si>
   <si>
-    <t>2016-05-06</t>
-  </si>
-  <si>
-    <t>2016-07-11</t>
-  </si>
-  <si>
     <t>hotline_number</t>
   </si>
   <si>
     <t>hotline_msg</t>
   </si>
   <si>
-    <t>(800) 555-5555</t>
-  </si>
-  <si>
-    <t>Call (800) 555-5555 to contact an enrollment specialist between 7AM-9PM Monday-Friday</t>
-  </si>
-  <si>
     <t>This form is only a statement of interest and not an application. An Enrollment Specialist will contact you shortly. Please visit &lt;a href="http://nyc.gov/prek" target="_blank"&gt;nyc.gov/prek&lt;/a&gt; for more information.</t>
   </si>
   <si>
-    <t>&lt;p&gt;All NYC children born in 2011 are eligible to attend pre-K in September 2015.&lt;/p&gt;&lt;p&gt;Click &amp;#34;&lt;span class="capitalize"&gt;request a call&lt;/span&gt;&amp;#34; to hear from an enrollment specialist.&lt;/p&gt;&lt;p&gt;You can also apply in the &lt;span class="capitalize"&gt;round 2&lt;/span&gt; application period from June 22 - July 10&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;All NYC children born in 2011 are eligible to attend pre-K in September 2015.&lt;/p&gt;&lt;p&gt;Click &amp;#34;&lt;span class="capitalize"&gt;request a call&lt;/span&gt;&amp;#34; to hear from an enrollment specialist.&lt;/p&gt;&lt;p&gt;The &lt;span class="capitalize"&gt;main round&lt;/span&gt; application period is now closed. You can still contact &lt;span class="capitalize"&gt;main round&lt;/span&gt; programs directly to inquire about waitlists and availability.&lt;/p&gt;&lt;p&gt;You can still apply for pre-K in the &lt;span class="capitalize"&gt;round 2&lt;/span&gt; application period from June 22-July 10. &lt;span class="capitalize"&gt;round 2&lt;/span&gt; programs include newly awarded NYCEEC pre-k programs&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>form_error</t>
   </si>
   <si>
-    <t>There was an error processing your submission, please try again.</t>
-  </si>
-  <si>
     <t>birth_year</t>
   </si>
   <si>
-    <t>2011</t>
-  </si>
-  <si>
     <t>start_year</t>
   </si>
   <si>
-    <t>2015</t>
-  </si>
-  <si>
     <t>Your submission was successful!&lt;br&gt;&lt;br&gt;Do you wish to submit again for another child?</t>
+  </si>
+  <si>
+    <t>2016-17</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The 2016-2017 school year has already begun! &lt;/p&gt;&lt;p&gt; All NYC children born in 2013 will be eligible to attend pre-K in September 2017. &lt;/p&gt;&lt;p&gt;The application for the 2017-2018 school year will open in early 2017.&lt;/p&gt;&lt;p&gt;To ensure that you will be notified about the opening of the application, please click the &amp;#34;&lt;span class="capitalize"&gt;request a call&lt;/span&gt;&amp;#34; button and fill out the Get in Touch form, marking the correct birth year of your child.&lt;/p&gt;&lt;p&gt;If your child was born in 2012 and you have not yet found a pre-K program, please contact the Pre-K Outreach Team at (212) 637-8000 regarding programs that may still have openings.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;All NYC children born in 2012 are eligible to attend pre-K in September 2016.&lt;/p&gt;&lt;p&gt;Click &amp;#34;&lt;span class="capitalize"&gt;request a call&lt;/span&gt;&amp;#34; to hear from an enrollment specialist.&lt;/p&gt;&lt;p&gt;The &lt;span class="capitalize"&gt;main round&lt;/span&gt; application period is now closed. You can still contact &lt;span class="capitalize"&gt;main round&lt;/span&gt; programs directly to inquire about waitlists and availability.&lt;/p&gt;&lt;p&gt;You can still apply for pre-K in the &lt;span class="capitalize"&gt;round 2&lt;/span&gt; application period from June 22-July 10. &lt;span class="capitalize"&gt;round 2&lt;/span&gt; programs include newly awarded NYCEEC pre-k programs&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Programs that may have immediate availability</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Note:&lt;/b&gt; To be eligible for pre-K for the 2016-17 school year, your child must have been born in the year 2012.</t>
+  </si>
+  <si>
+    <t>There was an error processing your submission, please try again. Please call 718-935-2009 (Monday-Friday between 8am and 6pm) to speak to a representative.</t>
+  </si>
+  <si>
+    <t>(212) 637-8000</t>
+  </si>
+  <si>
+    <t>Call (212) 637-8000 to contact an enrollment specialist between 9AM-5PM Monday-Friday</t>
+  </si>
+  <si>
+    <t>http://schools.nyc.gov/OA/SchoolReports/2014-15/School_Quality_Snapshot_2015_HS_${LOCCODE}.pdf</t>
+  </si>
+  <si>
+    <t>quality_pdf</t>
+  </si>
+  <si>
+    <t>btn_pdf</t>
+  </si>
+  <si>
+    <t>quality snapshot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,6 +277,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -582,7 +587,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -625,8 +630,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
@@ -639,8 +645,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -674,6 +683,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1018,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,18 +1050,18 @@
     </row>
     <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
+      </c>
+      <c r="B2" s="7">
+        <v>2012</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>37</v>
+        <v>24</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2016</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1059,147 +1069,161 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>42492</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>42510</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="E35E" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="FNu/TYOjJKWkslvOw3PqLd3X8FkHOD5vyyicFJaqZ+V+VES3X9pIGgxUKO8kWnUA6+0Rb0kGFmNof9v1UhgVJg==" saltValue="UhEHkWNgGzRM9losmKJ53Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>

--- a/etc/content.xlsx
+++ b/etc/content.xlsx
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="content" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>key</t>
   </si>
@@ -90,9 +90,6 @@
     <t>hotline_msg</t>
   </si>
   <si>
-    <t>This form is only a statement of interest and not an application. An Enrollment Specialist will contact you shortly. Please visit &lt;a href="http://nyc.gov/prek" target="_blank"&gt;nyc.gov/prek&lt;/a&gt; for more information.</t>
-  </si>
-  <si>
     <t>form_error</t>
   </si>
   <si>
@@ -108,12 +105,6 @@
     <t>2016-17</t>
   </si>
   <si>
-    <t>&lt;p&gt;The 2016-2017 school year has already begun! &lt;/p&gt;&lt;p&gt; All NYC children born in 2013 will be eligible to attend pre-K in September 2017. &lt;/p&gt;&lt;p&gt;The application for the 2017-2018 school year will open in early 2017.&lt;/p&gt;&lt;p&gt;To ensure that you will be notified about the opening of the application, please click the &amp;#34;&lt;span class="capitalize"&gt;request a call&lt;/span&gt;&amp;#34; button and fill out the Get in Touch form, marking the correct birth year of your child.&lt;/p&gt;&lt;p&gt;If your child was born in 2012 and you have not yet found a pre-K program, please contact the Pre-K Outreach Team at (212) 637-8000 regarding programs that may still have openings.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;All NYC children born in 2012 are eligible to attend pre-K in September 2016.&lt;/p&gt;&lt;p&gt;Click &amp;#34;&lt;span class="capitalize"&gt;request a call&lt;/span&gt;&amp;#34; to hear from an enrollment specialist.&lt;/p&gt;&lt;p&gt;The &lt;span class="capitalize"&gt;main round&lt;/span&gt; application period is now closed. You can still contact &lt;span class="capitalize"&gt;main round&lt;/span&gt; programs directly to inquire about waitlists and availability.&lt;/p&gt;&lt;p&gt;You can still apply for pre-K in the &lt;span class="capitalize"&gt;round 2&lt;/span&gt; application period from June 22-July 10. &lt;span class="capitalize"&gt;round 2&lt;/span&gt; programs include newly awarded NYCEEC pre-k programs&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>Programs that may have immediate availability</t>
   </si>
   <si>
@@ -129,23 +120,38 @@
     <t>Call (212) 637-8000 to contact an enrollment specialist between 9AM-5PM Monday-Friday</t>
   </si>
   <si>
-    <t>http://schools.nyc.gov/OA/SchoolReports/2014-15/School_Quality_Snapshot_2015_HS_${LOCCODE}.pdf</t>
-  </si>
-  <si>
     <t>quality_pdf</t>
   </si>
   <si>
     <t>btn_pdf</t>
   </si>
   <si>
-    <t>quality snapshot</t>
+    <t>Pre-K Snapshot</t>
+  </si>
+  <si>
+    <t>form_invalid</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;The 2016-2017 school year has already begun! &lt;/p&gt;&lt;p&gt; All NYC children born in 2013 will be eligible to attend pre-K in September 2017. &lt;/p&gt;&lt;p&gt;The application for the 2017-2018 school year will open in early 2017.&lt;/p&gt;&lt;p&gt;To ensure that you will be notified about the opening of the application, please click the &amp;#34;&lt;span class='capitalize'&gt;request a call&lt;/span&gt;&amp;#34; button and fill out the Get in Touch form, marking the correct birth year of your child.&lt;/p&gt;&lt;p&gt;If your child was born in 2012 and you have not yet found a pre-K program, please contact the Pre-K Outreach Team at (212) 637-8000 regarding programs that may still have openings.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;All NYC children born in 2012 are eligible to attend pre-K in September 2016.&lt;/p&gt;&lt;p&gt;Click &amp;#34;&lt;span class='capitalize'&gt;request a call&lt;/span&gt;&amp;#34; to hear from an enrollment specialist.&lt;/p&gt;&lt;p&gt;The &lt;span class='capitalize'&gt;main round&lt;/span&gt; application period is now closed. You can still contact &lt;span class='capitalize'&gt;main round&lt;/span&gt; programs directly to inquire about waitlists and availability.&lt;/p&gt;&lt;p&gt;You can still apply for pre-K in the &lt;span class='capitalize'&gt;round 2&lt;/span&gt; application period from June 22-July 10. &lt;span class='capitalize'&gt;round 2&lt;/span&gt; programs include newly awarded NYCEEC pre-k programs&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>This form is only a statement of interest and not an application. An Enrollment Specialist will contact you shortly. Please visit &lt;a href='http://nyc.gov/prek' target='_blank'&gt;nyc.gov/prek&lt;/a&gt; for more information.</t>
+  </si>
+  <si>
+    <t>You have entered invalid information.&lt;p&gt;The form only accepts English language characters.&lt;/p&gt;Please correct the information in the red fields. If you are having difficulty submitting this form, please call 718-935-2009 (Monday-Friday between 8am and 6pm) to speak to a representative.</t>
+  </si>
+  <si>
+    <t>http://schools.nyc.gov/OA/SchoolReports/2014-15/School_Quality_Snapshot_2015_HS_${loccode4}.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +291,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -632,7 +645,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
@@ -646,6 +659,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1028,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,7 +1066,7 @@
     </row>
     <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="7">
         <v>2012</v>
@@ -1058,7 +1074,7 @@
     </row>
     <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="7">
         <v>2016</v>
@@ -1069,7 +1085,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1093,7 +1109,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1101,7 +1117,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1131,7 +1147,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1139,7 +1155,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1147,7 +1163,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1155,7 +1171,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1163,69 +1179,77 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2012</v>
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>2016</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2016</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>34</v>
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FNu/TYOjJKWkslvOw3PqLd3X8FkHOD5vyyicFJaqZ+V+VES3X9pIGgxUKO8kWnUA6+0Rb0kGFmNof9v1UhgVJg==" saltValue="UhEHkWNgGzRM9losmKJ53Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UMoqmkP41JKp2gMLDb4gibBBWfEmVaIvt67VmL2gEV/EKrZw2zxP0IofdEptLK/IqBPs5N5ohNlxs9oz/4prYg==" saltValue="nbvPSqoMY08tW7Wq8mPhjg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/etc/content.xlsx
+++ b/etc/content.xlsx
@@ -144,7 +144,7 @@
     <t>You have entered invalid information.&lt;p&gt;The form only accepts English language characters.&lt;/p&gt;Please correct the information in the red fields. If you are having difficulty submitting this form, please call 718-935-2009 (Monday-Friday between 8am and 6pm) to speak to a representative.</t>
   </si>
   <si>
-    <t>http://schools.nyc.gov/OA/SchoolReports/2014-15/School_Quality_Snapshot_2015_HS_${loccode4}.pdf</t>
+    <t>http://schools.nyc.gov/OA/SchoolReports/2015-16/School_Quality_Snapshot_PK_2016_${loccode4}.pdf</t>
   </si>
 </sst>
 </file>

--- a/etc/content.xlsx
+++ b/etc/content.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>key</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Your submission was successful!&lt;br&gt;&lt;br&gt;Do you wish to submit again for another child?</t>
   </si>
   <si>
-    <t>2016-17</t>
-  </si>
-  <si>
     <t>Programs that may have immediate availability</t>
   </si>
   <si>
@@ -145,12 +142,24 @@
   </si>
   <si>
     <t>http://schools.nyc.gov/OA/SchoolReports/2015-16/School_Quality_Snapshot_PK_2016_${loccode4}.pdf</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2017-18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -645,7 +654,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
@@ -654,7 +663,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -664,6 +672,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1047,13 +1059,14 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1064,20 +1077,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="7">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="7">
-        <v>2016</v>
+      <c r="B3" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1085,23 +1098,23 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>42492</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="9">
+        <v>42906</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>42510</v>
+      <c r="B6" s="9">
+        <v>42979</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1109,7 +1122,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1117,7 +1130,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1147,7 +1160,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1155,7 +1168,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1163,7 +1176,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1171,7 +1184,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1187,15 +1200,15 @@
         <v>21</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1219,7 +1232,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1227,27 +1240,27 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>33</v>
-      </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UMoqmkP41JKp2gMLDb4gibBBWfEmVaIvt67VmL2gEV/EKrZw2zxP0IofdEptLK/IqBPs5N5ohNlxs9oz/4prYg==" saltValue="nbvPSqoMY08tW7Wq8mPhjg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="oKu7kAiZrWrOfezzrLjRaIWx0v9ovlFgjikrjz7X7P1XztvO5D1p/wHz5bNf+KqcJ79XxN5aX1Z99p+tyC4MHw==" saltValue="plw1TzzYJTO1YQT9VzZ2Ng==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>

--- a/etc/content.xlsx
+++ b/etc/content.xlsx
@@ -16,16 +16,11 @@
     <sheet name="content" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>key</t>
   </si>
@@ -60,9 +55,6 @@
     <t>application_filter_btn</t>
   </si>
   <si>
-    <t>round 2 programs</t>
-  </si>
-  <si>
     <t>dynamic_filter_btn</t>
   </si>
   <si>
@@ -102,12 +94,6 @@
     <t>Your submission was successful!&lt;br&gt;&lt;br&gt;Do you wish to submit again for another child?</t>
   </si>
   <si>
-    <t>Programs that may have immediate availability</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Note:&lt;/b&gt; To be eligible for pre-K for the 2016-17 school year, your child must have been born in the year 2012.</t>
-  </si>
-  <si>
     <t>There was an error processing your submission, please try again. Please call 718-935-2009 (Monday-Friday between 8am and 6pm) to speak to a representative.</t>
   </si>
   <si>
@@ -123,18 +109,9 @@
     <t>btn_pdf</t>
   </si>
   <si>
-    <t>Pre-K Snapshot</t>
-  </si>
-  <si>
     <t>form_invalid</t>
   </si>
   <si>
-    <t>&lt;p&gt;The 2016-2017 school year has already begun! &lt;/p&gt;&lt;p&gt; All NYC children born in 2013 will be eligible to attend pre-K in September 2017. &lt;/p&gt;&lt;p&gt;The application for the 2017-2018 school year will open in early 2017.&lt;/p&gt;&lt;p&gt;To ensure that you will be notified about the opening of the application, please click the &amp;#34;&lt;span class='capitalize'&gt;request a call&lt;/span&gt;&amp;#34; button and fill out the Get in Touch form, marking the correct birth year of your child.&lt;/p&gt;&lt;p&gt;If your child was born in 2012 and you have not yet found a pre-K program, please contact the Pre-K Outreach Team at (212) 637-8000 regarding programs that may still have openings.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;All NYC children born in 2012 are eligible to attend pre-K in September 2016.&lt;/p&gt;&lt;p&gt;Click &amp;#34;&lt;span class='capitalize'&gt;request a call&lt;/span&gt;&amp;#34; to hear from an enrollment specialist.&lt;/p&gt;&lt;p&gt;The &lt;span class='capitalize'&gt;main round&lt;/span&gt; application period is now closed. You can still contact &lt;span class='capitalize'&gt;main round&lt;/span&gt; programs directly to inquire about waitlists and availability.&lt;/p&gt;&lt;p&gt;You can still apply for pre-K in the &lt;span class='capitalize'&gt;round 2&lt;/span&gt; application period from June 22-July 10. &lt;span class='capitalize'&gt;round 2&lt;/span&gt; programs include newly awarded NYCEEC pre-k programs&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>This form is only a statement of interest and not an application. An Enrollment Specialist will contact you shortly. Please visit &lt;a href='http://nyc.gov/prek' target='_blank'&gt;nyc.gov/prek&lt;/a&gt; for more information.</t>
   </si>
   <si>
@@ -144,22 +121,43 @@
     <t>http://schools.nyc.gov/OA/SchoolReports/2015-16/School_Quality_Snapshot_PK_2016_${loccode4}.pdf</t>
   </si>
   <si>
-    <t>2014</t>
-  </si>
-  <si>
     <t>2017</t>
   </si>
   <si>
     <t>2017-18</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Round 2 pre-K results letters were sent on June 7. If you would like to reserve a seat at the program where you received your Round 2 offer, pre-register in person with your child and the &lt;a href='http://schools.nyc.gov/ChoicesEnrollment/NewStudents/default.htm##whattobring' target='_blank'&gt;required documents&lt;/a&gt; by Wednesday, June 28! If you applied before in Round 2 before the May 9 deadline, but have not received your results letter yet, please call 718-935-2009.&lt;/p&gt;&lt;p&gt; All NYC children born in 2013 are eligible to attend pre-K in September 2017! &lt;/p&gt;&lt;p&gt;If you haven't applied to pre-K yet, please click the &lt;b&gt;Request a Call&lt;/b&gt; button below to have an Enrollment Specialist contact you about your options.&lt;/p&gt;&lt;p&gt; Have questions about the new Pre-K Quality Snapshot? Click &lt;a href='http://schools.nyc.gov/Academics/EarlyChildhood/parentfamilies/default.htm' target='_blank'&gt;here&lt;/a&gt; for resources.&lt;/p&gt;  </t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;i&gt;&lt;b&gt;Round 2 is now open! Apply for Pre-K until Tuesday, May 9, 2017! &lt;/b&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt; Please use this tool to find information about programs, and &lt;b&gt; click the Apply Now button below when you're ready! &lt;/b&gt; You can find programs that are included in Round 2 by clicking the &lt;b&gt;Programs with  Seats Available in Round 2&lt;/b&gt; button. &lt;/p&gt;&lt;p&gt;As of April 10, we have added some new programs to Round 2! You can find them by clicking the &lt;b&gt;Programs with Seats Available in Round 2 button&lt;/b&gt;, and add them to your application!&lt;/p&gt;&lt;p&gt;If you have already applied in Round 1 by the March 3 deadline, please wait until you receive your Round 1 offer letter on April 20 before making a decision about whether to apply in Round 2.&lt;/p&gt;&lt;p&gt; All NYC children born in 2013 will be eligible to attend pre-K in September 2017. &lt;/p&gt;&lt;p&gt; Have questions about the new Pre-K Quality Snapshot? Click &lt;a href='http://schools.nyc.gov/Academics/EarlyChildhood/parentfamilies/default.htm' target='_blank'&gt;here&lt;/a&gt; for resources.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Apply Now</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Note:&lt;/b&gt; To be eligible for pre-K for the 2017-18 school year, your child must have been born in the year 2013.</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>Pre-K Quality Snapshot</t>
+  </si>
+  <si>
+    <t>2017-03-27</t>
+  </si>
+  <si>
+    <t>2017-05-09</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-  </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -654,15 +652,16 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -672,10 +671,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1064,209 +1059,202 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="31.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B3" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="6" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="9">
-        <v>42906</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9">
-        <v>42979</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="oKu7kAiZrWrOfezzrLjRaIWx0v9ovlFgjikrjz7X7P1XztvO5D1p/wHz5bNf+KqcJ79XxN5aX1Z99p+tyC4MHw==" saltValue="plw1TzzYJTO1YQT9VzZ2Ng==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>